--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FS Projects\CSE\public\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\department\CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4F9965-D867-41E1-A00A-86B217D13CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A15574E-609E-4F76-A16C-2346C01462CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="434">
   <si>
     <t>S.NO.</t>
   </si>
@@ -1319,6 +1319,9 @@
   </si>
   <si>
     <t>4th  Oct 2021</t>
+  </si>
+  <si>
+    <t>empId</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +1938,7 @@
   <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1953,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>433</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\department\CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A15574E-609E-4F76-A16C-2346C01462CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6738AF57-4D2E-4CCD-8742-E0514AAB261C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="431">
   <si>
     <t>S.NO.</t>
   </si>
   <si>
-    <t>EMP. ID</t>
-  </si>
-  <si>
     <t>Name of the Staff Member</t>
   </si>
   <si>
@@ -1246,9 +1243,6 @@
     <t>6th Feb 2025</t>
   </si>
   <si>
-    <t xml:space="preserve"> Computer Science &amp; Business System (CSBS)</t>
-  </si>
-  <si>
     <t>CVRCSEF261</t>
   </si>
   <si>
@@ -1280,9 +1274,6 @@
   </si>
   <si>
     <t>1st Sept 2022</t>
-  </si>
-  <si>
-    <t>M.Tech (Artificial Intelligence &amp; Machine Learning)</t>
   </si>
   <si>
     <t>CVRCSEF133</t>
@@ -1376,7 +1367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1502,32 +1493,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1541,7 +1506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1597,7 +1562,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1610,24 +1575,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1935,10 +1882,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1956,19 +1903,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1976,19 +1923,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1996,17 +1943,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2014,19 +1961,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2034,17 +1981,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2052,19 +1999,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2072,19 +2019,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2092,19 +2039,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2112,19 +2059,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2132,19 +2079,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2152,19 +2099,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2172,19 +2119,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2192,19 +2139,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2212,19 +2159,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2232,19 +2179,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2252,19 +2199,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2272,19 +2219,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2292,19 +2239,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2312,17 +2259,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2330,19 +2277,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2350,19 +2297,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2370,19 +2317,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2390,19 +2337,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2410,19 +2357,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2430,19 +2377,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2450,19 +2397,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2470,19 +2417,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2490,19 +2437,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2510,19 +2457,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2530,19 +2477,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2550,17 +2497,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2568,19 +2515,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2588,19 +2535,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="F33" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2608,19 +2555,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2628,19 +2575,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2648,19 +2595,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2668,19 +2615,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="F37" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2688,19 +2635,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2708,19 +2655,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2728,19 +2675,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2748,19 +2695,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2768,19 +2715,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2788,19 +2735,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2808,19 +2755,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2828,19 +2775,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2848,19 +2795,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2868,19 +2815,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2888,19 +2835,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="D48" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2908,19 +2855,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2928,19 +2875,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="D50" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2948,19 +2895,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="F51" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2968,19 +2915,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="D52" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2988,19 +2935,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="D53" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3008,19 +2955,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="D54" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3028,19 +2975,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="D55" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3048,19 +2995,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="D56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3068,19 +3015,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3088,19 +3035,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="D58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E58" s="7" t="s">
+      <c r="F58" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3109,16 +3056,16 @@
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" s="7" t="s">
+      <c r="F59" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3126,19 +3073,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="D60" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3146,19 +3093,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3166,19 +3113,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E62" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3186,19 +3133,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="D63" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E63" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3206,19 +3153,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="D64" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E64" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3226,19 +3173,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E65" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3246,19 +3193,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="D66" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E66" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3266,19 +3213,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="D67" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E67" s="7" t="s">
+      <c r="F67" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3286,19 +3233,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="D68" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E68" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3306,19 +3253,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="D69" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E69" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3326,19 +3273,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="D70" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="E70" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3346,19 +3293,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="D71" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E71" s="7" t="s">
+      <c r="F71" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3366,19 +3313,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="D72" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E72" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3386,19 +3333,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="D73" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E73" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3406,19 +3353,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="D74" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="F74" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3426,19 +3373,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="D75" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="F75" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3446,19 +3393,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="D76" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="F76" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3466,19 +3413,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="D77" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E77" s="7" t="s">
+      <c r="F77" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3486,19 +3433,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="D78" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E78" s="7" t="s">
+      <c r="F78" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3506,19 +3453,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="D79" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E79" s="7" t="s">
+      <c r="F79" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3526,19 +3473,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="D80" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E80" s="7" t="s">
+      <c r="F80" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3546,19 +3493,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="D81" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E81" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3566,19 +3513,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="D82" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E82" s="7" t="s">
+      <c r="F82" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3586,19 +3533,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="D83" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E83" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3606,19 +3553,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="D84" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E84" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3626,19 +3573,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="D85" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E85" s="7" t="s">
+      <c r="F85" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3646,19 +3593,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="D86" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E86" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="F86" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3666,19 +3613,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="D87" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E87" s="7" t="s">
+      <c r="F87" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3686,19 +3633,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="D88" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="F88" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3706,19 +3653,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="D89" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E89" s="9" t="s">
+      <c r="F89" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3726,19 +3673,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="D90" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E90" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E90" s="7" t="s">
+      <c r="F90" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3746,19 +3693,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="D91" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E91" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="F91" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3766,19 +3713,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="D92" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E92" s="7" t="s">
+      <c r="F92" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3786,19 +3733,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="D93" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E93" s="7" t="s">
+      <c r="F93" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3806,19 +3753,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="D94" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E94" s="7" t="s">
+      <c r="F94" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3826,19 +3773,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="D95" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E95" s="7" t="s">
+      <c r="F95" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3846,19 +3793,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="D96" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E96" s="7" t="s">
+      <c r="F96" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3866,19 +3813,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="D97" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="F97" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3886,19 +3833,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="D98" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>391</v>
-      </c>
       <c r="F98" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3907,16 +3854,16 @@
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E99" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="D99" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>393</v>
-      </c>
       <c r="F99" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3925,16 +3872,16 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D100" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>395</v>
-      </c>
       <c r="F100" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3943,16 +3890,16 @@
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="D101" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="F101" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3961,16 +3908,16 @@
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="D102" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>399</v>
-      </c>
       <c r="F102" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3978,19 +3925,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C103" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="D103" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E103" s="7" t="s">
+      <c r="F103" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3998,206 +3945,142 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C104" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="D104" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D104" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E104" s="7" t="s">
+      <c r="F104" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="F104" s="18" t="s">
+    </row>
+    <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="19">
+        <v>104</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="24" t="s">
+      <c r="C105" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="26"/>
+      <c r="D105" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>5</v>
+      <c r="A106" s="19">
+        <v>105</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>112</v>
+        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="19">
-        <v>2</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>244</v>
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="19">
-        <v>3</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>416</v>
+      <c r="A109" s="5">
+        <v>108</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>422</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>285</v>
+        <v>423</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="29"/>
-    </row>
-    <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="5">
-        <v>1</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="5">
-        <v>2</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="C113" s="7" t="s">
+      <c r="A110" s="5">
+        <v>109</v>
+      </c>
+      <c r="B110" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E113" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="D110" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="5">
-        <v>3</v>
-      </c>
-      <c r="B114" s="20" t="s">
+      <c r="F110" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>432</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A110:F110"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\department\CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6738AF57-4D2E-4CCD-8742-E0514AAB261C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D1B500-328B-42D6-AA58-97AFEC77B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>S.NO.</t>
   </si>
   <si>
-    <t>Name of the Staff Member</t>
-  </si>
-  <si>
     <t>Designation</t>
   </si>
   <si>
@@ -1313,6 +1310,9 @@
   </si>
   <si>
     <t>empId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the Staff Member </t>
   </si>
 </sst>
 </file>
@@ -1884,8 +1884,8 @@
   </sheetPr>
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B21:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1903,19 +1903,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1923,19 +1923,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1943,17 +1943,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1961,19 +1961,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1981,17 +1981,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1999,19 +1999,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2019,19 +2019,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2039,19 +2039,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2059,19 +2059,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2079,19 +2079,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2099,19 +2099,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2119,19 +2119,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2139,19 +2139,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2159,19 +2159,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2179,19 +2179,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2199,19 +2199,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2219,19 +2219,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2239,19 +2239,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2259,17 +2259,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2277,19 +2277,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2297,19 +2297,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2317,19 +2317,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2337,19 +2337,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2357,19 +2357,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2377,19 +2377,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2397,19 +2397,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2417,19 +2417,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2437,19 +2437,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2457,19 +2457,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2477,19 +2477,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2497,17 +2497,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2515,19 +2515,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2535,19 +2535,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="F33" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2555,19 +2555,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2575,19 +2575,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2595,19 +2595,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2615,19 +2615,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="F37" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2635,19 +2635,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2655,19 +2655,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2675,19 +2675,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2695,19 +2695,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2715,19 +2715,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2735,19 +2735,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2755,19 +2755,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2775,19 +2775,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2795,19 +2795,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2815,19 +2815,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2835,19 +2835,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="D48" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2855,19 +2855,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2875,19 +2875,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="D50" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2895,19 +2895,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="F51" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2915,19 +2915,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="D52" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2935,19 +2935,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="D53" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2955,19 +2955,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="D54" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2975,19 +2975,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="D55" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2995,19 +2995,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="D56" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3015,19 +3015,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3035,19 +3035,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="D58" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="7" t="s">
+      <c r="F58" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3056,16 +3056,16 @@
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="7" t="s">
+      <c r="F59" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3073,19 +3073,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="D60" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3093,19 +3093,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3113,19 +3113,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E62" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3133,19 +3133,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="D63" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E63" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3153,19 +3153,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="D64" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E64" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3173,19 +3173,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E65" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3193,19 +3193,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="D66" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E66" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3213,19 +3213,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="D67" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E67" s="7" t="s">
+      <c r="F67" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3233,19 +3233,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="D68" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E68" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3253,19 +3253,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="D69" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E69" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3273,19 +3273,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="D70" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="E70" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3293,19 +3293,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="D71" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E71" s="7" t="s">
+      <c r="F71" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3313,19 +3313,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="D72" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E72" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3333,19 +3333,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="D73" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E73" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3353,19 +3353,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="D74" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="F74" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3373,19 +3373,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="D75" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="F75" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3393,19 +3393,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="D76" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="F76" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3413,19 +3413,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="D77" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E77" s="7" t="s">
+      <c r="F77" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3433,19 +3433,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="D78" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E78" s="7" t="s">
+      <c r="F78" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3453,19 +3453,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="D79" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E79" s="7" t="s">
+      <c r="F79" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3473,19 +3473,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="D80" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E80" s="7" t="s">
+      <c r="F80" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3493,19 +3493,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="D81" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E81" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3513,19 +3513,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="D82" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E82" s="7" t="s">
+      <c r="F82" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3533,19 +3533,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="D83" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E83" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3553,19 +3553,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="D84" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E84" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3573,19 +3573,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="D85" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E85" s="7" t="s">
+      <c r="F85" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3593,19 +3593,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="D86" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E86" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="F86" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3613,19 +3613,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="D87" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E87" s="7" t="s">
+      <c r="F87" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3633,19 +3633,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="D88" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>353</v>
-      </c>
       <c r="F88" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3653,19 +3653,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="D89" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E89" s="9" t="s">
+      <c r="F89" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3673,19 +3673,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="D90" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E90" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E90" s="7" t="s">
+      <c r="F90" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3693,19 +3693,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="D91" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E91" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="F91" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3713,19 +3713,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="D92" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E92" s="7" t="s">
+      <c r="F92" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3733,19 +3733,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="D93" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E93" s="7" t="s">
+      <c r="F93" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3753,19 +3753,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="D94" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E94" s="7" t="s">
+      <c r="F94" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3773,19 +3773,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="D95" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E95" s="7" t="s">
+      <c r="F95" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3793,19 +3793,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="D96" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E96" s="7" t="s">
+      <c r="F96" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3813,19 +3813,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="D97" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="F97" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3833,19 +3833,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="D98" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="F98" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3854,16 +3854,16 @@
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E99" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="D99" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>392</v>
-      </c>
       <c r="F99" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3872,16 +3872,16 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D100" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="F100" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D101" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>396</v>
-      </c>
       <c r="F101" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3908,16 +3908,16 @@
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="D102" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="F102" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3925,19 +3925,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C103" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="D103" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E103" s="7" t="s">
+      <c r="F103" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3945,19 +3945,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C104" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="D104" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="D104" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E104" s="7" t="s">
+      <c r="F104" s="18" t="s">
         <v>405</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3965,19 +3965,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="D105" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="F105" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3985,19 +3985,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="D106" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D106" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E106" s="7" t="s">
+      <c r="F106" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4005,19 +4005,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="D107" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E107" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E107" s="7" t="s">
+      <c r="F107" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4025,19 +4025,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C108" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="D108" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E108" s="7" t="s">
+      <c r="F108" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4045,19 +4045,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="D109" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E109" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E109" s="7" t="s">
+      <c r="F109" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4065,19 +4065,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C110" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="D110" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="D110" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E110" s="7" t="s">
+      <c r="F110" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\department\CSE\public\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D1B500-328B-42D6-AA58-97AFEC77B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="429">
   <si>
     <t>S.NO.</t>
   </si>
   <si>
+    <t>empId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the Staff Member </t>
+  </si>
+  <si>
     <t>Designation</t>
   </si>
   <si>
@@ -256,7 +256,7 @@
     <t>Mr. Ch. Ram Mohan</t>
   </si>
   <si>
-    <t xml:space="preserve">Assoc. Professor, Coordinator, Faculty Affairs of CSE </t>
+    <t xml:space="preserve">Assoc.Prof, Coordinator, Faculty Affairs of CSE </t>
   </si>
   <si>
     <t>chramohan@cvr.ac.in</t>
@@ -313,7 +313,7 @@
     <t>Dr.P.Kiran Kumar</t>
   </si>
   <si>
-    <t> p.kirankumar@cvr.ac.in</t>
+    <t xml:space="preserve"> p.kirankumar@cvr.ac.in</t>
   </si>
   <si>
     <t>22nd Nov 2021</t>
@@ -373,9 +373,6 @@
     <t>Dr. P. Venkateswara Rao</t>
   </si>
   <si>
-    <t xml:space="preserve">Assoc. Prof. </t>
-  </si>
-  <si>
     <t>drrao.pinagadi@cvr.ac.in</t>
   </si>
   <si>
@@ -871,9 +868,6 @@
     <t>Ms.Thatikonda Supraja</t>
   </si>
   <si>
-    <t>Asst.Prof</t>
-  </si>
-  <si>
     <t>supraja.t2@cvr.ac.in</t>
   </si>
   <si>
@@ -1307,18 +1301,13 @@
   </si>
   <si>
     <t>4th  Oct 2021</t>
-  </si>
-  <si>
-    <t>empId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the Staff Member </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1363,11 +1352,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1418,23 +1407,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1467,7 +1443,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -1482,10 +1458,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1506,89 +1482,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="23">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1599,10 +1569,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1640,71 +1610,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1732,7 +1702,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1755,11 +1725,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1768,13 +1738,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1784,7 +1754,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1793,7 +1763,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1802,7 +1772,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1810,10 +1780,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1878,1408 +1848,1406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B21:B23"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="21" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="46.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="23.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>429</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>430</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>133</v>
+        <v>227</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>133</v>
+        <v>231</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>133</v>
+        <v>235</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>133</v>
+        <v>238</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>284</v>
@@ -3288,7 +3256,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3299,7 +3267,7 @@
         <v>287</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>288</v>
@@ -3308,7 +3276,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3319,7 +3287,7 @@
         <v>291</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>292</v>
@@ -3328,7 +3296,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -3339,7 +3307,7 @@
         <v>295</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>296</v>
@@ -3348,7 +3316,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3359,16 +3327,16 @@
         <v>299</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -3379,16 +3347,16 @@
         <v>302</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>303</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -3399,16 +3367,16 @@
         <v>305</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>306</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -3419,7 +3387,7 @@
         <v>308</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>309</v>
@@ -3428,7 +3396,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -3439,7 +3407,7 @@
         <v>312</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>313</v>
@@ -3448,7 +3416,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -3459,7 +3427,7 @@
         <v>316</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>317</v>
@@ -3468,7 +3436,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -3479,7 +3447,7 @@
         <v>320</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>321</v>
@@ -3488,7 +3456,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -3498,8 +3466,8 @@
       <c r="C81" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>242</v>
+      <c r="D81" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>325</v>
@@ -3508,7 +3476,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -3518,8 +3486,8 @@
       <c r="C82" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>242</v>
+      <c r="D82" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>329</v>
@@ -3528,7 +3496,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -3538,8 +3506,8 @@
       <c r="C83" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>242</v>
+      <c r="D83" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>333</v>
@@ -3548,7 +3516,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -3558,8 +3526,8 @@
       <c r="C84" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>242</v>
+      <c r="D84" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>337</v>
@@ -3568,7 +3536,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -3578,8 +3546,8 @@
       <c r="C85" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>242</v>
+      <c r="D85" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>341</v>
@@ -3588,7 +3556,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -3598,8 +3566,8 @@
       <c r="C86" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>242</v>
+      <c r="D86" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>345</v>
@@ -3608,7 +3576,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -3618,8 +3586,8 @@
       <c r="C87" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>242</v>
+      <c r="D87" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>348</v>
@@ -3628,7 +3596,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -3638,8 +3606,8 @@
       <c r="C88" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>242</v>
+      <c r="D88" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>352</v>
@@ -3648,7 +3616,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -3658,8 +3626,8 @@
       <c r="C89" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>242</v>
+      <c r="D89" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>355</v>
@@ -3668,7 +3636,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -3678,8 +3646,8 @@
       <c r="C90" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>242</v>
+      <c r="D90" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>359</v>
@@ -3688,7 +3656,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -3698,8 +3666,8 @@
       <c r="C91" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>242</v>
+      <c r="D91" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>363</v>
@@ -3708,7 +3676,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -3718,8 +3686,8 @@
       <c r="C92" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>242</v>
+      <c r="D92" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>366</v>
@@ -3728,7 +3696,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -3738,8 +3706,8 @@
       <c r="C93" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>242</v>
+      <c r="D93" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>370</v>
@@ -3748,7 +3716,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -3758,8 +3726,8 @@
       <c r="C94" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>242</v>
+      <c r="D94" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>374</v>
@@ -3768,7 +3736,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -3778,8 +3746,8 @@
       <c r="C95" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>242</v>
+      <c r="D95" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>378</v>
@@ -3788,7 +3756,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -3798,8 +3766,8 @@
       <c r="C96" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>242</v>
+      <c r="D96" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>382</v>
@@ -3808,7 +3776,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -3818,8 +3786,8 @@
       <c r="C97" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>242</v>
+      <c r="D97" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>386</v>
@@ -3828,7 +3796,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -3838,8 +3806,8 @@
       <c r="C98" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>242</v>
+      <c r="D98" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>389</v>
@@ -3848,7 +3816,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -3856,17 +3824,17 @@
       <c r="C99" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="D99" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="E99" s="15" t="s">
+      <c r="D99" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E99" s="14" t="s">
         <v>391</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -3874,8 +3842,8 @@
       <c r="C100" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="D100" s="14" t="s">
-        <v>242</v>
+      <c r="D100" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>393</v>
@@ -3884,7 +3852,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -3892,8 +3860,8 @@
       <c r="C101" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D101" s="14" t="s">
-        <v>242</v>
+      <c r="D101" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>395</v>
@@ -3902,7 +3870,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -3910,8 +3878,8 @@
       <c r="C102" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D102" s="14" t="s">
-        <v>242</v>
+      <c r="D102" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>397</v>
@@ -3920,18 +3888,18 @@
         <v>383</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="5">
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>242</v>
+      <c r="D103" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>400</v>
@@ -3940,28 +3908,28 @@
         <v>401</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="5">
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="D104" s="18" t="s">
-        <v>242</v>
+      <c r="D104" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F104" s="18" t="s">
+      <c r="F104" s="17" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="19">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="18">
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
@@ -3971,17 +3939,17 @@
         <v>407</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>408</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="19">
+        <v>112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="18">
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
@@ -3990,8 +3958,8 @@
       <c r="C106" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="D106" s="14" t="s">
-        <v>242</v>
+      <c r="D106" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>411</v>
@@ -4000,8 +3968,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="19">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="18">
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -4011,7 +3979,7 @@
         <v>414</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>415</v>
@@ -4020,18 +3988,18 @@
         <v>416</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="5">
         <v>107</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="19" t="s">
         <v>417</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>418</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>419</v>
@@ -4040,18 +4008,18 @@
         <v>420</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="5">
         <v>108</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="19" t="s">
         <v>421</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>422</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>423</v>
@@ -4060,18 +4028,18 @@
         <v>424</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="5">
         <v>109</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="19" t="s">
         <v>425</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D110" s="7" t="s">
-        <v>242</v>
+      <c r="D110" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>427</v>

--- a/public/Data/faculty.xlsx
+++ b/public/Data/faculty.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FS Projects\CSE\public\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A32B1D-0C6B-44A3-AC01-E6B436356DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -313,7 +319,7 @@
     <t>Dr.P.Kiran Kumar</t>
   </si>
   <si>
-    <t xml:space="preserve"> p.kirankumar@cvr.ac.in</t>
+    <t> p.kirankumar@cvr.ac.in</t>
   </si>
   <si>
     <t>22nd Nov 2021</t>
@@ -1306,8 +1312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1352,7 +1357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1407,10 +1412,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1443,7 +1448,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -1458,18 +1463,18 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1483,82 +1488,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1569,10 +1577,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1610,71 +1618,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1702,7 +1710,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1725,11 +1733,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1738,13 +1746,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1754,7 +1762,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1763,7 +1771,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1772,7 +1780,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1780,10 +1788,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1848,25 +1856,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="21" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="46.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1906,7 +1916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1924,7 +1934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1944,7 +1954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1962,7 +1972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1982,7 +1992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2002,7 +2012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2022,7 +2032,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2042,7 +2052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2062,7 +2072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2082,7 +2092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2102,7 +2112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2122,7 +2132,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2142,7 +2152,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2162,7 +2172,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2182,1837 +2192,1837 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="B17" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="F31" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>135</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="8" t="s">
-        <v>238</v>
+      <c r="B59" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+        <v>236</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>242</v>
+      <c r="B60" s="6"/>
+      <c r="C60" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+        <v>239</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>312</v>
+        <v>307</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>320</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>336</v>
+        <v>331</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="13" t="s">
-        <v>353</v>
+      <c r="B89" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E89" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="E89" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>357</v>
+      <c r="B90" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E90" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="E90" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="8" t="s">
-        <v>390</v>
+      <c r="B99" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>388</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E99" s="14" t="s">
-        <v>391</v>
+      <c r="E99" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>99</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E100" s="8" t="s">
-        <v>393</v>
+      <c r="E100" s="14" t="s">
+        <v>391</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>395</v>
+      <c r="E101" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>101</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>399</v>
+      <c r="B103" s="6"/>
+      <c r="C103" s="8" t="s">
+        <v>396</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C105" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E104" s="7" t="s">
+      <c r="D105" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F104" s="17" t="s">
+      <c r="F105" s="17" t="s">
         <v>405</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="18">
-        <v>104</v>
-      </c>
-      <c r="B105" s="6" t="s">
+    <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C106" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E105" s="7" t="s">
+      <c r="D106" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F106" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="18">
-        <v>105</v>
-      </c>
-      <c r="B106" s="6" t="s">
+    <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C107" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E106" s="7" t="s">
+      <c r="D107" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E107" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F107" s="7" t="s">
         <v>412</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="18">
-        <v>106</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>107</v>
       </c>
-      <c r="B108" s="19" t="s">
-        <v>417</v>
+      <c r="B108" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>22</v>
+        <v>414</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>108</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="18" t="s">
         <v>421</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -4028,11 +4038,11 @@
         <v>424</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>109</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="B110" s="18" t="s">
         <v>425</v>
       </c>
       <c r="C110" s="7" t="s">
@@ -4047,6 +4057,9 @@
       <c r="F110" s="7" t="s">
         <v>428</v>
       </c>
+    </row>
+    <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
